--- a/whisper_malayalam_benchmarking.xlsx
+++ b/whisper_malayalam_benchmarking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E885C-ACFB-4C52-9A79-A8B35B57D5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78AEDB1-7F81-4795-978B-731610A27557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{2F807B76-962C-48CB-86D9-10104463EDAB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{2F807B76-962C-48CB-86D9-10104463EDAB}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonVoice" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,41 +160,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -279,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -293,38 +280,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7047,258 +7051,263 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D14"/>
+      <selection activeCell="B16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="42.90625" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="4" width="27.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="42.90625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.90625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="12">
         <v>339.77</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="12">
         <v>179.36</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="12">
         <v>4.5844719999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="12">
         <v>235.63</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <v>136.22999999999999</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="12">
         <v>6.8158649999999996</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="12">
         <v>165.75</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
         <v>100.1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <v>9.5584089999999993</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>264.83</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>137.05000000000001</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>46.030957999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>244.37</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>139.72</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>81.577091999999993</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>156.09</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>98.95</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="12">
         <v>48.120226000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>183.22</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>138.37</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>256.95294200000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>87.82</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>29.16</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <v>25.916781</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>78.849999999999994</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="12">
         <v>22.78</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <v>79.596779999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>68.510000000000005</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="12">
         <v>17.13</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <v>262.76342699999998</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>61.84</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="12">
         <v>15.41</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="12">
         <v>83.003555000000006</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>72.87</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="12">
         <v>18.13</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="12">
         <v>30.665728999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>85.75</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="12">
         <v>26.54</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="12">
         <v>31.477072</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7310,7 +7319,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7318,245 +7327,244 @@
     <col min="1" max="1" width="34.453125" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" customWidth="1"/>
+    <col min="4" max="5" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="15.5">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" ht="15.5">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="17">
         <v>306.20999999999998</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="17">
         <v>171.56</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="17">
         <v>63.063423</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:5" ht="15.5">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="17">
         <v>346.98</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="17">
         <v>194.78</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="17">
         <v>148.264163</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" ht="15.5">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="17">
         <v>201.91</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="17">
         <v>127.13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="17">
         <v>198.96172899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:5" ht="15.5">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="17">
         <v>176.32</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="17">
         <v>107.08</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="17">
         <v>374.31172700000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" ht="15.5">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="17">
         <v>163.66999999999999</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="17">
         <v>103.82</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="17">
         <v>593.63740800000005</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:5" ht="15.5">
+      <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="17">
         <v>175.45</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="17">
         <v>108.75</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="17">
         <v>692.29582900000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5" ht="15.5">
+      <c r="A8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="17">
         <v>148.18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="17">
         <v>126.07</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="17">
         <v>3574.3247849999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:5" ht="15.5">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="17">
         <v>88.05</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="17">
         <v>32.5</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="17">
         <v>238.274979</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:5" ht="15.5">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="17">
         <v>81.89</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="17">
         <v>24.99</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="17">
         <v>782.57341199999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:5" ht="15.5">
+      <c r="A11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="17">
         <v>70.39</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="17">
         <v>18.47</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="17">
         <v>2652.1915610000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:5" ht="15.5">
+      <c r="A12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="17">
         <v>70.489999999999995</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="17">
         <v>17</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="17">
         <v>852.10178199999996</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:5" ht="15.5">
+      <c r="A13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="17">
         <v>73.56</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="17">
         <v>17.82</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="17">
         <v>323.70562799999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5" ht="15.5">
+      <c r="A14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="17">
         <v>80.95</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="17">
         <v>23.01</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="17">
         <v>322.86295899999999</v>
       </c>
     </row>
